--- a/Amazon_hyyzo_payout.xlsx
+++ b/Amazon_hyyzo_payout.xlsx
@@ -1,33 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Sklearn_And_Python_For_Interview\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBB53E-7214-4C6B-8D98-F9F8A9C94CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon Payout " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+  <si>
+    <t>Unique_Id</t>
+  </si>
+  <si>
+    <t>Campaign_Name__Hyyzo</t>
+  </si>
+  <si>
+    <t>Partner__Hyyzo</t>
+  </si>
+  <si>
+    <t>Payout__Hyyzo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Campaign_Name_Partner_Hyyzo</t>
+  </si>
+  <si>
+    <t>Partner_Partner_Hyyzo</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
+    <t>Payout_Partner_Hyyzo</t>
+  </si>
+  <si>
     <t>Action_Date</t>
   </si>
   <si>
@@ -37,17 +55,17 @@
     <t>Amazon India</t>
   </si>
   <si>
-    <t>Campaign_Name</t>
+    <t>cuelinks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,36 +117,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +173,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,7 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,10 +241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,207 +416,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>20146005</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F2">
+        <v>20146005</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
         <v>199</v>
       </c>
-      <c r="D2">
+      <c r="J2">
+        <v>2.03</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L2">
         <v>1.827</v>
       </c>
-      <c r="E2" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>20146056</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F3">
+        <v>20146056</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>1177.96</v>
       </c>
-      <c r="D3">
-        <v>43.002000000000002</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>47.78</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L3">
+        <v>43.002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>20146519</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F4">
+        <v>20146519</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
         <v>227.97</v>
       </c>
-      <c r="D4">
-        <v>6.9300000000000006</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>7.7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L4">
+        <v>6.930000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>20146616</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F5">
+        <v>20146616</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
         <v>199</v>
       </c>
-      <c r="D5">
-        <v>4.8419999999999996</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>5.38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L5">
+        <v>4.842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>20146619</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F6">
+        <v>20146619</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
         <v>75.42</v>
       </c>
-      <c r="D6">
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2.55</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L6">
+        <v>2.295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>20146909</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F7">
+        <v>20146909</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>846.62</v>
       </c>
-      <c r="D7">
-        <v>18.027000000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>20.03</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L7">
+        <v>18.027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>20146943</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F8">
+        <v>20146943</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
         <v>803</v>
       </c>
-      <c r="D8">
+      <c r="J8">
+        <v>2.03</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L8">
         <v>1.827</v>
       </c>
-      <c r="E8" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>20147077</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F9">
+        <v>20147077</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
         <v>818</v>
       </c>
-      <c r="D9">
+      <c r="J9">
+        <v>2.03</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L9">
         <v>1.827</v>
       </c>
-      <c r="E9" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>20147113</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F10">
+        <v>20147113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
         <v>139</v>
       </c>
-      <c r="D10">
+      <c r="J10">
+        <v>2.03</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45580</v>
+      </c>
+      <c r="L10">
         <v>1.827</v>
       </c>
-      <c r="E10" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>20113674</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45579</v>
+      </c>
+      <c r="F11">
+        <v>20113674</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
         <v>677.12</v>
       </c>
-      <c r="D11">
+      <c r="J11">
+        <v>18.3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45579</v>
+      </c>
+      <c r="L11">
         <v>16.47</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45579</v>
       </c>
     </row>
   </sheetData>
